--- a/data/raw/data_raw_experiment_1_2_environment.xlsx
+++ b/data/raw/data_raw_experiment_1_2_environment.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\0_Ziegelprojekt\3_Aufnahmen_und_Ergebnisse\2020_waste_bricks_for_restoration\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CACD014-4600-45E8-9C31-130F67C0F12A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data raw" sheetId="1" r:id="rId1"/>
@@ -21,20 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="334">
   <si>
     <t>brickRatio</t>
   </si>
@@ -915,9 +908,6 @@
     <t>position on in the half-open greenhouse</t>
   </si>
   <si>
-    <t>seetDensity</t>
-  </si>
-  <si>
     <t>forbMass</t>
   </si>
   <si>
@@ -1033,16 +1023,22 @@
   </si>
   <si>
     <t>see supplementary material on GitHub</t>
+  </si>
+  <si>
+    <t>2019-09-03</t>
+  </si>
+  <si>
+    <t>2019-09-04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1054,6 +1050,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1178,7 +1180,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1492,12 +1494,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N111" sqref="N111"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,7 +1535,7 @@
         <v>186</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>2</v>
@@ -1548,10 +1550,10 @@
         <v>174</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>293</v>
+        <v>188</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J1" s="20" t="s">
         <v>173</v>
@@ -1566,7 +1568,7 @@
         <v>185</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O1" s="20" t="s">
         <v>179</v>
@@ -1590,10 +1592,10 @@
         <v>187</v>
       </c>
       <c r="V1" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="W1" s="20" t="s">
         <v>295</v>
-      </c>
-      <c r="W1" s="20" t="s">
-        <v>296</v>
       </c>
       <c r="X1" s="20" t="s">
         <v>189</v>
@@ -1606,8 +1608,8 @@
       <c r="B2" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="23">
-        <v>43711</v>
+      <c r="C2" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -1619,22 +1621,22 @@
         <v>0.5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H2" s="2">
         <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K2" s="2">
         <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M2">
         <v>12.1</v>
@@ -1680,8 +1682,8 @@
       <c r="B3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="23">
-        <v>43711</v>
+      <c r="C3" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -1693,22 +1695,22 @@
         <v>0.5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H3" s="2">
         <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K3" s="2">
         <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M3">
         <v>10.100000000000001</v>
@@ -1754,8 +1756,8 @@
       <c r="B4" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="23">
-        <v>43711</v>
+      <c r="C4" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -1767,22 +1769,22 @@
         <v>0.5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H4" s="2">
         <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K4" s="2">
         <v>5</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M4">
         <v>11</v>
@@ -1828,8 +1830,8 @@
       <c r="B5" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="23">
-        <v>43711</v>
+      <c r="C5" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
@@ -1841,22 +1843,22 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H5" s="2">
         <v>20</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K5" s="2">
         <v>5</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M5">
         <v>20.299999999999997</v>
@@ -1902,8 +1904,8 @@
       <c r="B6" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="23">
-        <v>43711</v>
+      <c r="C6" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
@@ -1915,22 +1917,22 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H6" s="2">
         <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K6" s="2">
         <v>30</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M6">
         <v>2.8999999999999995</v>
@@ -1976,8 +1978,8 @@
       <c r="B7" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="23">
-        <v>43711</v>
+      <c r="C7" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>3</v>
@@ -1989,22 +1991,22 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H7" s="2">
         <v>4</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K7" s="2">
         <v>30</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M7">
         <v>1.8999999999999995</v>
@@ -2050,8 +2052,8 @@
       <c r="B8" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="23">
-        <v>43711</v>
+      <c r="C8" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
@@ -2063,22 +2065,22 @@
         <v>0.5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H8" s="2">
         <v>4</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K8" s="2">
         <v>5</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M8">
         <v>6.1000000000000005</v>
@@ -2124,8 +2126,8 @@
       <c r="B9" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="23">
-        <v>43711</v>
+      <c r="C9" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
@@ -2137,22 +2139,22 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H9" s="2">
         <v>4</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K9" s="2">
         <v>5</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M9">
         <v>5.6000000000000005</v>
@@ -2198,8 +2200,8 @@
       <c r="B10" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="23">
-        <v>43711</v>
+      <c r="C10" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -2211,22 +2213,22 @@
         <v>0.5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H10" s="2">
         <v>4</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K10" s="2">
         <v>30</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M10">
         <v>8.3000000000000007</v>
@@ -2272,8 +2274,8 @@
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="23">
-        <v>43711</v>
+      <c r="C11" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>3</v>
@@ -2285,22 +2287,22 @@
         <v>0.5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H11" s="2">
         <v>4</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K11" s="2">
         <v>30</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M11">
         <v>14.799999999999999</v>
@@ -2346,8 +2348,8 @@
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="23">
-        <v>43711</v>
+      <c r="C12" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>3</v>
@@ -2359,22 +2361,22 @@
         <v>0.5</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H12" s="2">
         <v>4</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K12" s="2">
         <v>5</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M12">
         <v>6.4999999999999991</v>
@@ -2420,8 +2422,8 @@
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="23">
-        <v>43711</v>
+      <c r="C13" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
@@ -2433,22 +2435,22 @@
         <v>0.5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H13" s="2">
         <v>4</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K13" s="2">
         <v>5</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M13">
         <v>9.6999999999999993</v>
@@ -2494,8 +2496,8 @@
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="23">
-        <v>43711</v>
+      <c r="C14" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>3</v>
@@ -2507,22 +2509,22 @@
         <v>0.5</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H14" s="2">
         <v>4</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K14" s="2">
         <v>30</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M14">
         <v>10.199999999999999</v>
@@ -2568,8 +2570,8 @@
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23">
-        <v>43711</v>
+      <c r="C15" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
@@ -2581,22 +2583,22 @@
         <v>0.5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H15" s="2">
         <v>4</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K15" s="2">
         <v>30</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M15">
         <v>6.1000000000000005</v>
@@ -2642,8 +2644,8 @@
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="23">
-        <v>43711</v>
+      <c r="C16" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -2655,22 +2657,22 @@
         <v>0.5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H16" s="2">
         <v>4</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K16" s="2">
         <v>5</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M16">
         <v>2.7</v>
@@ -2716,8 +2718,8 @@
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="23">
-        <v>43711</v>
+      <c r="C17" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>3</v>
@@ -2729,22 +2731,22 @@
         <v>0.5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H17" s="2">
         <v>4</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K17" s="2">
         <v>5</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M17">
         <v>14.5</v>
@@ -2790,8 +2792,8 @@
       <c r="B18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="23">
-        <v>43711</v>
+      <c r="C18" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>3</v>
@@ -2803,22 +2805,22 @@
         <v>0.5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H18" s="2">
         <v>4</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K18" s="2">
         <v>30</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M18">
         <v>2.8</v>
@@ -2864,8 +2866,8 @@
       <c r="B19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="23">
-        <v>43711</v>
+      <c r="C19" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>3</v>
@@ -2877,22 +2879,22 @@
         <v>0.5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H19" s="2">
         <v>4</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K19" s="2">
         <v>5</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M19">
         <v>1.0999999999999996</v>
@@ -2938,8 +2940,8 @@
       <c r="B20" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="23">
-        <v>43711</v>
+      <c r="C20" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>3</v>
@@ -2951,22 +2953,22 @@
         <v>0.5</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H20" s="2">
+        <v>4</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="H20" s="2">
-        <v>4</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="K20" s="2">
         <v>30</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M20">
         <v>11.999999999999998</v>
@@ -3012,8 +3014,8 @@
       <c r="B21" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="23">
-        <v>43711</v>
+      <c r="C21" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>3</v>
@@ -3025,22 +3027,22 @@
         <v>0.5</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H21" s="2">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="H21" s="2">
-        <v>4</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="K21" s="2">
         <v>5</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M21">
         <v>7.2</v>
@@ -3086,8 +3088,8 @@
       <c r="B22" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="23">
-        <v>43711</v>
+      <c r="C22" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>4</v>
@@ -3099,22 +3101,22 @@
         <v>0.5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H22" s="2">
         <v>20</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K22" s="2">
         <v>30</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M22">
         <v>13.200000000000001</v>
@@ -3160,8 +3162,8 @@
       <c r="B23" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="23">
-        <v>43711</v>
+      <c r="C23" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>4</v>
@@ -3173,22 +3175,22 @@
         <v>0.5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H23" s="2">
         <v>20</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K23" s="2">
         <v>30</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M23">
         <v>13.200000000000001</v>
@@ -3234,8 +3236,8 @@
       <c r="B24" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="23">
-        <v>43711</v>
+      <c r="C24" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>4</v>
@@ -3247,22 +3249,22 @@
         <v>0.5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H24" s="2">
         <v>20</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K24" s="2">
         <v>5</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M24">
         <v>15.299999999999999</v>
@@ -3308,8 +3310,8 @@
       <c r="B25" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C25" s="23">
-        <v>43711</v>
+      <c r="C25" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>4</v>
@@ -3321,22 +3323,22 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H25" s="2">
         <v>20</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K25" s="2">
         <v>5</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M25">
         <v>13.200000000000001</v>
@@ -3382,8 +3384,8 @@
       <c r="B26" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C26" s="23">
-        <v>43711</v>
+      <c r="C26" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>4</v>
@@ -3395,22 +3397,22 @@
         <v>0.5</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H26" s="2">
         <v>4</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K26" s="2">
         <v>30</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M26">
         <v>3.3</v>
@@ -3456,8 +3458,8 @@
       <c r="B27" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C27" s="23">
-        <v>43711</v>
+      <c r="C27" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>4</v>
@@ -3469,22 +3471,22 @@
         <v>0.5</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H27" s="2">
         <v>4</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K27" s="2">
         <v>30</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M27">
         <v>1.3999999999999995</v>
@@ -3530,8 +3532,8 @@
       <c r="B28" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="23">
-        <v>43711</v>
+      <c r="C28" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>4</v>
@@ -3543,22 +3545,22 @@
         <v>0.5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H28" s="2">
         <v>4</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K28" s="2">
         <v>5</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M28">
         <v>2.7</v>
@@ -3604,8 +3606,8 @@
       <c r="B29" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="23">
-        <v>43711</v>
+      <c r="C29" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>4</v>
@@ -3617,22 +3619,22 @@
         <v>0.5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H29" s="2">
         <v>4</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K29" s="2">
         <v>5</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M29">
         <v>6</v>
@@ -3678,8 +3680,8 @@
       <c r="B30" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C30" s="23">
-        <v>43711</v>
+      <c r="C30" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>4</v>
@@ -3691,22 +3693,22 @@
         <v>0.5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H30" s="2">
         <v>4</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K30" s="2">
         <v>30</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M30">
         <v>6</v>
@@ -3752,8 +3754,8 @@
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="23">
-        <v>43711</v>
+      <c r="C31" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>4</v>
@@ -3765,22 +3767,22 @@
         <v>0.5</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H31" s="2">
         <v>4</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K31" s="2">
         <v>30</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M31">
         <v>4.6999999999999993</v>
@@ -3826,8 +3828,8 @@
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="23">
-        <v>43711</v>
+      <c r="C32" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>4</v>
@@ -3839,22 +3841,22 @@
         <v>0.5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H32" s="2">
         <v>4</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K32" s="2">
         <v>5</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M32">
         <v>4.2</v>
@@ -3900,8 +3902,8 @@
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="23">
-        <v>43711</v>
+      <c r="C33" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>4</v>
@@ -3913,22 +3915,22 @@
         <v>0.5</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H33" s="2">
         <v>4</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K33" s="2">
         <v>5</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M33">
         <v>5.0999999999999996</v>
@@ -3974,8 +3976,8 @@
       <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="23">
-        <v>43711</v>
+      <c r="C34" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>4</v>
@@ -3987,22 +3989,22 @@
         <v>0.5</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H34" s="2">
         <v>4</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K34" s="2">
         <v>30</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M34">
         <v>9.4</v>
@@ -4048,8 +4050,8 @@
       <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="23">
-        <v>43711</v>
+      <c r="C35" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>4</v>
@@ -4061,22 +4063,22 @@
         <v>0.5</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H35" s="2">
         <v>4</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K35" s="2">
         <v>30</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M35">
         <v>14.6</v>
@@ -4122,8 +4124,8 @@
       <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="23">
-        <v>43711</v>
+      <c r="C36" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>4</v>
@@ -4135,22 +4137,22 @@
         <v>0.5</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H36" s="2">
         <v>4</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K36" s="2">
         <v>5</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M36">
         <v>2.8999999999999995</v>
@@ -4196,8 +4198,8 @@
       <c r="B37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="23">
-        <v>43711</v>
+      <c r="C37" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>4</v>
@@ -4209,22 +4211,22 @@
         <v>0.5</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H37" s="2">
         <v>4</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K37" s="2">
         <v>5</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M37">
         <v>8.7999999999999989</v>
@@ -4270,8 +4272,8 @@
       <c r="B38" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="23">
-        <v>43711</v>
+      <c r="C38" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>4</v>
@@ -4283,22 +4285,22 @@
         <v>0.5</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H38" s="2">
         <v>4</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K38" s="2">
         <v>30</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M38">
         <v>3.9000000000000004</v>
@@ -4344,8 +4346,8 @@
       <c r="B39" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C39" s="23">
-        <v>43711</v>
+      <c r="C39" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>4</v>
@@ -4357,22 +4359,22 @@
         <v>0.5</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H39" s="2">
         <v>4</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K39" s="2">
         <v>5</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M39">
         <v>4.0999999999999996</v>
@@ -4418,8 +4420,8 @@
       <c r="B40" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="23">
-        <v>43711</v>
+      <c r="C40" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>4</v>
@@ -4431,22 +4433,22 @@
         <v>0.5</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H40" s="2">
+        <v>4</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="H40" s="2">
-        <v>4</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="K40" s="2">
         <v>30</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M40">
         <v>0.9</v>
@@ -4492,8 +4494,8 @@
       <c r="B41" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="23">
-        <v>43711</v>
+      <c r="C41" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>4</v>
@@ -4505,22 +4507,22 @@
         <v>0.5</v>
       </c>
       <c r="G41" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H41" s="2">
+        <v>4</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="H41" s="2">
-        <v>4</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="K41" s="2">
         <v>5</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M41">
         <v>10.6</v>
@@ -4566,8 +4568,8 @@
       <c r="B42" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C42" s="23">
-        <v>43711</v>
+      <c r="C42" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
@@ -4579,22 +4581,22 @@
         <v>3</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H42" s="2">
         <v>20</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K42" s="2">
         <v>30</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M42">
         <v>34.1</v>
@@ -4640,8 +4642,8 @@
       <c r="B43" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C43" s="23">
-        <v>43711</v>
+      <c r="C43" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
@@ -4653,22 +4655,22 @@
         <v>3</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H43" s="2">
         <v>20</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K43" s="2">
         <v>30</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M43">
         <v>17</v>
@@ -4714,8 +4716,8 @@
       <c r="B44" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C44" s="23">
-        <v>43711</v>
+      <c r="C44" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
@@ -4727,22 +4729,22 @@
         <v>3</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H44" s="2">
         <v>20</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K44" s="2">
         <v>5</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M44">
         <v>21.4</v>
@@ -4788,8 +4790,8 @@
       <c r="B45" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C45" s="23">
-        <v>43711</v>
+      <c r="C45" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -4801,22 +4803,22 @@
         <v>3</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H45" s="2">
         <v>20</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K45" s="2">
         <v>5</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M45">
         <v>19.700000000000003</v>
@@ -4862,8 +4864,8 @@
       <c r="B46" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C46" s="23">
-        <v>43711</v>
+      <c r="C46" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
@@ -4875,22 +4877,22 @@
         <v>3</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H46" s="2">
         <v>4</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K46" s="2">
         <v>30</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M46">
         <v>2.5999999999999996</v>
@@ -4936,8 +4938,8 @@
       <c r="B47" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C47" s="23">
-        <v>43711</v>
+      <c r="C47" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -4949,22 +4951,22 @@
         <v>3</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H47" s="2">
         <v>4</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K47" s="2">
         <v>30</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M47">
         <v>1.5</v>
@@ -5010,8 +5012,8 @@
       <c r="B48" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C48" s="23">
-        <v>43711</v>
+      <c r="C48" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
@@ -5023,22 +5025,22 @@
         <v>3</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H48" s="2">
         <v>4</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K48" s="2">
         <v>5</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M48">
         <v>3.8999999999999995</v>
@@ -5084,8 +5086,8 @@
       <c r="B49" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C49" s="23">
-        <v>43711</v>
+      <c r="C49" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
@@ -5097,22 +5099,22 @@
         <v>3</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H49" s="2">
         <v>4</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K49" s="2">
         <v>5</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M49">
         <v>6.9999999999999991</v>
@@ -5158,8 +5160,8 @@
       <c r="B50" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C50" s="23">
-        <v>43711</v>
+      <c r="C50" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
@@ -5171,22 +5173,22 @@
         <v>3</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H50" s="2">
         <v>4</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K50" s="2">
         <v>30</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M50">
         <v>9</v>
@@ -5232,8 +5234,8 @@
       <c r="B51" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="23">
-        <v>43711</v>
+      <c r="C51" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
@@ -5245,22 +5247,22 @@
         <v>3</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H51" s="2">
         <v>4</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K51" s="2">
         <v>30</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M51">
         <v>9.1000000000000014</v>
@@ -5306,8 +5308,8 @@
       <c r="B52" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="23">
-        <v>43711</v>
+      <c r="C52" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
@@ -5319,22 +5321,22 @@
         <v>3</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H52" s="2">
         <v>4</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K52" s="2">
         <v>5</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M52">
         <v>7.7</v>
@@ -5380,8 +5382,8 @@
       <c r="B53" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="23">
-        <v>43711</v>
+      <c r="C53" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
@@ -5393,22 +5395,22 @@
         <v>3</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H53" s="2">
         <v>4</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K53" s="2">
         <v>5</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M53">
         <v>7.1000000000000005</v>
@@ -5454,8 +5456,8 @@
       <c r="B54" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="23">
-        <v>43711</v>
+      <c r="C54" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>6</v>
@@ -5467,22 +5469,22 @@
         <v>3</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H54" s="2">
         <v>4</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K54" s="2">
         <v>30</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M54">
         <v>8.3999999999999986</v>
@@ -5528,8 +5530,8 @@
       <c r="B55" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="23">
-        <v>43711</v>
+      <c r="C55" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
@@ -5541,22 +5543,22 @@
         <v>3</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H55" s="2">
         <v>4</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K55" s="2">
         <v>30</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M55">
         <v>13.1</v>
@@ -5602,8 +5604,8 @@
       <c r="B56" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="23">
-        <v>43711</v>
+      <c r="C56" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>6</v>
@@ -5615,22 +5617,22 @@
         <v>3</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H56" s="2">
         <v>4</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K56" s="2">
         <v>5</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M56">
         <v>4.3999999999999995</v>
@@ -5676,8 +5678,8 @@
       <c r="B57" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="23">
-        <v>43711</v>
+      <c r="C57" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
@@ -5689,22 +5691,22 @@
         <v>3</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H57" s="2">
         <v>4</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K57" s="2">
         <v>5</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M57">
         <v>5.1000000000000005</v>
@@ -5750,8 +5752,8 @@
       <c r="B58" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C58" s="23">
-        <v>43711</v>
+      <c r="C58" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>6</v>
@@ -5763,22 +5765,22 @@
         <v>3</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H58" s="2">
         <v>4</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K58" s="2">
         <v>30</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M58">
         <v>13.499999999999998</v>
@@ -5824,8 +5826,8 @@
       <c r="B59" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C59" s="23">
-        <v>43711</v>
+      <c r="C59" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>6</v>
@@ -5837,22 +5839,22 @@
         <v>3</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H59" s="2">
         <v>4</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K59" s="2">
         <v>5</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M59">
         <v>3.8999999999999995</v>
@@ -5898,8 +5900,8 @@
       <c r="B60" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C60" s="23">
-        <v>43711</v>
+      <c r="C60" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
@@ -5911,22 +5913,22 @@
         <v>3</v>
       </c>
       <c r="G60" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H60" s="2">
+        <v>4</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J60" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="H60" s="2">
-        <v>4</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="K60" s="2">
         <v>30</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M60">
         <v>8.5</v>
@@ -5972,8 +5974,8 @@
       <c r="B61" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C61" s="23">
-        <v>43711</v>
+      <c r="C61" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>6</v>
@@ -5985,22 +5987,22 @@
         <v>3</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H61" s="2">
+        <v>4</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J61" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="H61" s="2">
-        <v>4</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="K61" s="2">
         <v>5</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M61">
         <v>13.700000000000001</v>
@@ -6046,8 +6048,8 @@
       <c r="B62" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C62" s="23">
-        <v>43711</v>
+      <c r="C62" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>7</v>
@@ -6059,22 +6061,22 @@
         <v>3</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H62" s="2">
         <v>20</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K62" s="2">
         <v>30</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M62">
         <v>19.399999999999999</v>
@@ -6120,8 +6122,8 @@
       <c r="B63" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C63" s="23">
-        <v>43711</v>
+      <c r="C63" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>7</v>
@@ -6133,22 +6135,22 @@
         <v>3</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H63" s="2">
         <v>20</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K63" s="2">
         <v>30</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M63">
         <v>13.1</v>
@@ -6194,8 +6196,8 @@
       <c r="B64" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C64" s="23">
-        <v>43711</v>
+      <c r="C64" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>7</v>
@@ -6207,22 +6209,22 @@
         <v>3</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H64" s="2">
         <v>20</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K64" s="2">
         <v>5</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M64">
         <v>15.200000000000001</v>
@@ -6268,8 +6270,8 @@
       <c r="B65" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C65" s="23">
-        <v>43711</v>
+      <c r="C65" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>7</v>
@@ -6281,22 +6283,22 @@
         <v>3</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H65" s="2">
         <v>20</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K65" s="2">
         <v>5</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M65">
         <v>13.799999999999999</v>
@@ -6342,8 +6344,8 @@
       <c r="B66" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C66" s="23">
-        <v>43711</v>
+      <c r="C66" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>7</v>
@@ -6355,22 +6357,22 @@
         <v>3</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H66" s="2">
         <v>4</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K66" s="2">
         <v>30</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M66">
         <v>5.2</v>
@@ -6416,8 +6418,8 @@
       <c r="B67" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C67" s="23">
-        <v>43711</v>
+      <c r="C67" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>7</v>
@@ -6429,22 +6431,22 @@
         <v>3</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H67" s="2">
         <v>4</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K67" s="2">
         <v>30</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M67">
         <v>5.2</v>
@@ -6490,8 +6492,8 @@
       <c r="B68" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C68" s="23">
-        <v>43711</v>
+      <c r="C68" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>7</v>
@@ -6503,22 +6505,22 @@
         <v>3</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H68" s="2">
         <v>4</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K68" s="2">
         <v>5</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M68">
         <v>2.8999999999999995</v>
@@ -6564,8 +6566,8 @@
       <c r="B69" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C69" s="23">
-        <v>43711</v>
+      <c r="C69" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>7</v>
@@ -6577,22 +6579,22 @@
         <v>3</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H69" s="2">
         <v>4</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K69" s="2">
         <v>5</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M69">
         <v>2.5</v>
@@ -6638,8 +6640,8 @@
       <c r="B70" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C70" s="23">
-        <v>43711</v>
+      <c r="C70" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>7</v>
@@ -6651,22 +6653,22 @@
         <v>3</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H70" s="2">
         <v>4</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K70" s="2">
         <v>30</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M70">
         <v>4.7</v>
@@ -6712,8 +6714,8 @@
       <c r="B71" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="23">
-        <v>43711</v>
+      <c r="C71" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>7</v>
@@ -6725,22 +6727,22 @@
         <v>3</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H71" s="2">
         <v>4</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K71" s="2">
         <v>30</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M71">
         <v>2.2999999999999998</v>
@@ -6786,8 +6788,8 @@
       <c r="B72" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="23">
-        <v>43711</v>
+      <c r="C72" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>7</v>
@@ -6799,22 +6801,22 @@
         <v>3</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H72" s="2">
         <v>4</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K72" s="2">
         <v>5</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M72">
         <v>2.2999999999999998</v>
@@ -6860,8 +6862,8 @@
       <c r="B73" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="23">
-        <v>43711</v>
+      <c r="C73" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>7</v>
@@ -6873,22 +6875,22 @@
         <v>3</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H73" s="2">
         <v>4</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K73" s="2">
         <v>5</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M73">
         <v>4.7</v>
@@ -6934,8 +6936,8 @@
       <c r="B74" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="23">
-        <v>43711</v>
+      <c r="C74" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>7</v>
@@ -6947,22 +6949,22 @@
         <v>3</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H74" s="2">
         <v>4</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K74" s="2">
         <v>30</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M74">
         <v>5.3</v>
@@ -7008,8 +7010,8 @@
       <c r="B75" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="23">
-        <v>43711</v>
+      <c r="C75" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>7</v>
@@ -7021,22 +7023,22 @@
         <v>3</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H75" s="2">
         <v>4</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K75" s="2">
         <v>30</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M75">
         <v>7.6</v>
@@ -7082,8 +7084,8 @@
       <c r="B76" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="23">
-        <v>43711</v>
+      <c r="C76" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>7</v>
@@ -7095,22 +7097,22 @@
         <v>3</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H76" s="2">
         <v>4</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K76" s="2">
         <v>5</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M76">
         <v>10.499999999999998</v>
@@ -7156,8 +7158,8 @@
       <c r="B77" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="23">
-        <v>43711</v>
+      <c r="C77" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>7</v>
@@ -7169,22 +7171,22 @@
         <v>3</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H77" s="2">
         <v>4</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K77" s="2">
         <v>5</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M77">
         <v>7.1999999999999993</v>
@@ -7230,8 +7232,8 @@
       <c r="B78" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C78" s="23">
-        <v>43711</v>
+      <c r="C78" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>7</v>
@@ -7243,22 +7245,22 @@
         <v>3</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H78" s="2">
         <v>4</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K78" s="2">
         <v>30</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M78">
         <v>6.1000000000000005</v>
@@ -7304,8 +7306,8 @@
       <c r="B79" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C79" s="23">
-        <v>43711</v>
+      <c r="C79" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>7</v>
@@ -7317,22 +7319,22 @@
         <v>3</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H79" s="2">
         <v>4</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K79" s="2">
         <v>5</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M79">
         <v>3.5999999999999996</v>
@@ -7378,8 +7380,8 @@
       <c r="B80" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C80" s="23">
-        <v>43711</v>
+      <c r="C80" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>7</v>
@@ -7391,22 +7393,22 @@
         <v>3</v>
       </c>
       <c r="G80" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H80" s="2">
+        <v>4</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J80" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="H80" s="2">
-        <v>4</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="K80" s="2">
         <v>30</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M80">
         <v>6.2999999999999989</v>
@@ -7452,8 +7454,8 @@
       <c r="B81" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C81" s="23">
-        <v>43711</v>
+      <c r="C81" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>7</v>
@@ -7465,22 +7467,22 @@
         <v>3</v>
       </c>
       <c r="G81" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H81" s="2">
+        <v>4</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J81" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="H81" s="2">
-        <v>4</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="K81" s="2">
         <v>5</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M81">
         <v>2.8999999999999995</v>
@@ -7526,8 +7528,8 @@
       <c r="B82" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C82" s="23">
-        <v>43712</v>
+      <c r="C82" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>8</v>
@@ -7539,22 +7541,22 @@
         <v>1</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H82" s="2">
         <v>20</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K82" s="2">
         <v>30</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M82">
         <v>25</v>
@@ -7600,8 +7602,8 @@
       <c r="B83" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C83" s="23">
-        <v>43712</v>
+      <c r="C83" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>8</v>
@@ -7613,22 +7615,22 @@
         <v>1</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H83" s="2">
         <v>20</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K83" s="2">
         <v>30</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M83">
         <v>19.200000000000003</v>
@@ -7674,8 +7676,8 @@
       <c r="B84" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C84" s="23">
-        <v>43712</v>
+      <c r="C84" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>8</v>
@@ -7687,22 +7689,22 @@
         <v>1</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H84" s="2">
         <v>20</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K84" s="2">
         <v>5</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M84">
         <v>19.100000000000001</v>
@@ -7748,8 +7750,8 @@
       <c r="B85" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C85" s="23">
-        <v>43712</v>
+      <c r="C85" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>8</v>
@@ -7761,22 +7763,22 @@
         <v>1</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H85" s="2">
         <v>20</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K85" s="2">
         <v>5</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M85">
         <v>16.299999999999997</v>
@@ -7822,8 +7824,8 @@
       <c r="B86" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C86" s="23">
-        <v>43712</v>
+      <c r="C86" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>8</v>
@@ -7835,22 +7837,22 @@
         <v>1</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H86" s="2">
         <v>4</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K86" s="2">
         <v>30</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M86">
         <v>8.6999999999999993</v>
@@ -7896,8 +7898,8 @@
       <c r="B87" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C87" s="23">
-        <v>43712</v>
+      <c r="C87" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>8</v>
@@ -7909,22 +7911,22 @@
         <v>1</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H87" s="2">
         <v>4</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K87" s="2">
         <v>30</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M87">
         <v>1.8999999999999995</v>
@@ -7970,8 +7972,8 @@
       <c r="B88" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C88" s="23">
-        <v>43712</v>
+      <c r="C88" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>8</v>
@@ -7983,22 +7985,22 @@
         <v>1</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H88" s="2">
         <v>4</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K88" s="2">
         <v>5</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M88">
         <v>5.8</v>
@@ -8044,8 +8046,8 @@
       <c r="B89" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C89" s="23">
-        <v>43712</v>
+      <c r="C89" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>8</v>
@@ -8057,22 +8059,22 @@
         <v>1</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H89" s="2">
         <v>4</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K89" s="2">
         <v>5</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M89">
         <v>2.8999999999999995</v>
@@ -8118,8 +8120,8 @@
       <c r="B90" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C90" s="23">
-        <v>43712</v>
+      <c r="C90" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>8</v>
@@ -8131,22 +8133,22 @@
         <v>1</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H90" s="2">
         <v>4</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K90" s="2">
         <v>30</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M90">
         <v>9.5</v>
@@ -8192,8 +8194,8 @@
       <c r="B91" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="23">
-        <v>43712</v>
+      <c r="C91" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>8</v>
@@ -8205,22 +8207,22 @@
         <v>1</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H91" s="2">
         <v>4</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K91" s="2">
         <v>30</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M91">
         <v>6.2</v>
@@ -8266,8 +8268,8 @@
       <c r="B92" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C92" s="23">
-        <v>43712</v>
+      <c r="C92" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>8</v>
@@ -8279,22 +8281,22 @@
         <v>1</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H92" s="2">
         <v>4</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K92" s="2">
         <v>5</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M92">
         <v>9.1999999999999993</v>
@@ -8340,8 +8342,8 @@
       <c r="B93" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C93" s="23">
-        <v>43712</v>
+      <c r="C93" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>8</v>
@@ -8353,22 +8355,22 @@
         <v>1</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H93" s="2">
         <v>4</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K93" s="2">
         <v>5</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M93">
         <v>4</v>
@@ -8414,8 +8416,8 @@
       <c r="B94" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C94" s="23">
-        <v>43712</v>
+      <c r="C94" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>8</v>
@@ -8427,22 +8429,22 @@
         <v>1</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H94" s="2">
         <v>4</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K94" s="2">
         <v>30</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M94">
         <v>9.3999999999999986</v>
@@ -8488,8 +8490,8 @@
       <c r="B95" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C95" s="23">
-        <v>43712</v>
+      <c r="C95" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>8</v>
@@ -8501,22 +8503,22 @@
         <v>1</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H95" s="2">
         <v>4</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K95" s="2">
         <v>30</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M95">
         <v>7.3</v>
@@ -8562,8 +8564,8 @@
       <c r="B96" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C96" s="23">
-        <v>43712</v>
+      <c r="C96" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>8</v>
@@ -8575,22 +8577,22 @@
         <v>1</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H96" s="2">
         <v>4</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K96" s="2">
         <v>5</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M96">
         <v>5.2</v>
@@ -8636,8 +8638,8 @@
       <c r="B97" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C97" s="23">
-        <v>43712</v>
+      <c r="C97" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>8</v>
@@ -8649,22 +8651,22 @@
         <v>1</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H97" s="2">
         <v>4</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K97" s="2">
         <v>5</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M97">
         <v>12.700000000000001</v>
@@ -8710,8 +8712,8 @@
       <c r="B98" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C98" s="23">
-        <v>43712</v>
+      <c r="C98" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>8</v>
@@ -8723,22 +8725,22 @@
         <v>1</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H98" s="2">
         <v>4</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K98" s="2">
         <v>30</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M98">
         <v>6.3</v>
@@ -8784,8 +8786,8 @@
       <c r="B99" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C99" s="23">
-        <v>43712</v>
+      <c r="C99" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>8</v>
@@ -8797,22 +8799,22 @@
         <v>1</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H99" s="2">
         <v>4</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K99" s="2">
         <v>5</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M99">
         <v>4.2</v>
@@ -8858,8 +8860,8 @@
       <c r="B100" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C100" s="23">
-        <v>43712</v>
+      <c r="C100" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>8</v>
@@ -8871,22 +8873,22 @@
         <v>1</v>
       </c>
       <c r="G100" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H100" s="2">
+        <v>4</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J100" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="H100" s="2">
-        <v>4</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="K100" s="2">
         <v>30</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M100">
         <v>14.200000000000001</v>
@@ -8932,8 +8934,8 @@
       <c r="B101" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C101" s="23">
-        <v>43712</v>
+      <c r="C101" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>8</v>
@@ -8945,22 +8947,22 @@
         <v>1</v>
       </c>
       <c r="G101" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H101" s="2">
+        <v>4</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J101" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="H101" s="2">
-        <v>4</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="K101" s="2">
         <v>5</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M101">
         <v>13.999999999999998</v>
@@ -9006,8 +9008,8 @@
       <c r="B102" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C102" s="23">
-        <v>43712</v>
+      <c r="C102" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>9</v>
@@ -9019,22 +9021,22 @@
         <v>1</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H102" s="2">
         <v>20</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K102" s="2">
         <v>30</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M102">
         <v>20</v>
@@ -9080,8 +9082,8 @@
       <c r="B103" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C103" s="23">
-        <v>43712</v>
+      <c r="C103" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>9</v>
@@ -9093,22 +9095,22 @@
         <v>1</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H103" s="2">
         <v>20</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K103" s="2">
         <v>30</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M103">
         <v>16.5</v>
@@ -9154,8 +9156,8 @@
       <c r="B104" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C104" s="23">
-        <v>43712</v>
+      <c r="C104" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>9</v>
@@ -9167,22 +9169,22 @@
         <v>1</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H104" s="2">
         <v>20</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K104" s="2">
         <v>5</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M104">
         <v>15.4</v>
@@ -9228,8 +9230,8 @@
       <c r="B105" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C105" s="23">
-        <v>43712</v>
+      <c r="C105" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>9</v>
@@ -9241,22 +9243,22 @@
         <v>1</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H105" s="2">
         <v>20</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K105" s="2">
         <v>5</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M105">
         <v>2.3999999999999995</v>
@@ -9302,8 +9304,8 @@
       <c r="B106" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C106" s="23">
-        <v>43712</v>
+      <c r="C106" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>9</v>
@@ -9315,22 +9317,22 @@
         <v>1</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H106" s="2">
         <v>4</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K106" s="2">
         <v>30</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M106">
         <v>3.5999999999999996</v>
@@ -9376,8 +9378,8 @@
       <c r="B107" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C107" s="23">
-        <v>43712</v>
+      <c r="C107" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>9</v>
@@ -9389,22 +9391,22 @@
         <v>1</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H107" s="2">
         <v>4</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K107" s="2">
         <v>30</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M107">
         <v>2.2999999999999998</v>
@@ -9450,8 +9452,8 @@
       <c r="B108" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C108" s="23">
-        <v>43712</v>
+      <c r="C108" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>9</v>
@@ -9463,22 +9465,22 @@
         <v>1</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H108" s="2">
         <v>4</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K108" s="2">
         <v>5</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M108">
         <v>4</v>
@@ -9524,8 +9526,8 @@
       <c r="B109" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C109" s="23">
-        <v>43712</v>
+      <c r="C109" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>9</v>
@@ -9537,22 +9539,22 @@
         <v>1</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H109" s="2">
         <v>4</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K109" s="2">
         <v>5</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M109">
         <v>3.3</v>
@@ -9598,8 +9600,8 @@
       <c r="B110" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C110" s="23">
-        <v>43712</v>
+      <c r="C110" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>9</v>
@@ -9611,22 +9613,22 @@
         <v>1</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H110" s="2">
         <v>4</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K110" s="2">
         <v>30</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M110">
         <v>3.0999999999999996</v>
@@ -9672,8 +9674,8 @@
       <c r="B111" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C111" s="23">
-        <v>43712</v>
+      <c r="C111" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>9</v>
@@ -9685,22 +9687,22 @@
         <v>1</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H111" s="2">
         <v>4</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K111" s="2">
         <v>30</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M111">
         <v>5.2</v>
@@ -9746,8 +9748,8 @@
       <c r="B112" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C112" s="23">
-        <v>43712</v>
+      <c r="C112" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>9</v>
@@ -9759,22 +9761,22 @@
         <v>1</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H112" s="2">
         <v>4</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K112" s="2">
         <v>5</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M112">
         <v>4.8</v>
@@ -9820,8 +9822,8 @@
       <c r="B113" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C113" s="23">
-        <v>43712</v>
+      <c r="C113" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>9</v>
@@ -9833,22 +9835,22 @@
         <v>1</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H113" s="2">
         <v>4</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K113" s="2">
         <v>5</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M113">
         <v>3.8999999999999995</v>
@@ -9894,8 +9896,8 @@
       <c r="B114" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C114" s="23">
-        <v>43712</v>
+      <c r="C114" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>9</v>
@@ -9907,22 +9909,22 @@
         <v>1</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H114" s="2">
         <v>4</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K114" s="2">
         <v>30</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M114">
         <v>13.299999999999999</v>
@@ -9968,8 +9970,8 @@
       <c r="B115" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C115" s="23">
-        <v>43712</v>
+      <c r="C115" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>9</v>
@@ -9981,22 +9983,22 @@
         <v>1</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H115" s="2">
         <v>4</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K115" s="2">
         <v>30</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M115">
         <v>9.4</v>
@@ -10042,8 +10044,8 @@
       <c r="B116" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C116" s="23">
-        <v>43712</v>
+      <c r="C116" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>9</v>
@@ -10055,22 +10057,22 @@
         <v>1</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H116" s="2">
         <v>4</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K116" s="2">
         <v>5</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M116">
         <v>14.1</v>
@@ -10116,8 +10118,8 @@
       <c r="B117" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C117" s="23">
-        <v>43712</v>
+      <c r="C117" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>9</v>
@@ -10129,22 +10131,22 @@
         <v>1</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H117" s="2">
         <v>4</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K117" s="2">
         <v>5</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M117">
         <v>4.5999999999999996</v>
@@ -10190,8 +10192,8 @@
       <c r="B118" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C118" s="23">
-        <v>43712</v>
+      <c r="C118" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>9</v>
@@ -10203,22 +10205,22 @@
         <v>1</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H118" s="2">
         <v>4</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K118" s="2">
         <v>30</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M118">
         <v>3.5999999999999996</v>
@@ -10264,8 +10266,8 @@
       <c r="B119" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C119" s="23">
-        <v>43712</v>
+      <c r="C119" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>9</v>
@@ -10277,22 +10279,22 @@
         <v>1</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H119" s="2">
         <v>4</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K119" s="2">
         <v>5</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M119">
         <v>3.3999999999999995</v>
@@ -10338,8 +10340,8 @@
       <c r="B120" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C120" s="23">
-        <v>43712</v>
+      <c r="C120" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>9</v>
@@ -10351,22 +10353,22 @@
         <v>1</v>
       </c>
       <c r="G120" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H120" s="2">
+        <v>4</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J120" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="H120" s="2">
-        <v>4</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="K120" s="2">
         <v>30</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M120">
         <v>10.499999999999998</v>
@@ -10412,8 +10414,8 @@
       <c r="B121" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C121" s="23">
-        <v>43712</v>
+      <c r="C121" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>9</v>
@@ -10425,22 +10427,22 @@
         <v>1</v>
       </c>
       <c r="G121" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H121" s="2">
+        <v>4</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J121" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="H121" s="2">
-        <v>4</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="K121" s="2">
         <v>5</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M121">
         <v>4.8999999999999995</v>
@@ -10486,8 +10488,8 @@
       <c r="B122" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C122" s="23">
-        <v>43712</v>
+      <c r="C122" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>10</v>
@@ -10499,22 +10501,22 @@
         <v>2</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H122" s="2">
         <v>20</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K122" s="2">
         <v>30</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M122">
         <v>19</v>
@@ -10560,8 +10562,8 @@
       <c r="B123" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C123" s="23">
-        <v>43712</v>
+      <c r="C123" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>10</v>
@@ -10573,22 +10575,22 @@
         <v>2</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H123" s="2">
         <v>20</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K123" s="2">
         <v>30</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M123">
         <v>10.4</v>
@@ -10634,8 +10636,8 @@
       <c r="B124" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C124" s="23">
-        <v>43712</v>
+      <c r="C124" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>10</v>
@@ -10647,22 +10649,22 @@
         <v>2</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H124" s="2">
         <v>20</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K124" s="2">
         <v>5</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M124">
         <v>15.299999999999999</v>
@@ -10708,8 +10710,8 @@
       <c r="B125" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C125" s="23">
-        <v>43712</v>
+      <c r="C125" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>10</v>
@@ -10721,22 +10723,22 @@
         <v>2</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H125" s="2">
         <v>20</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K125" s="2">
         <v>5</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M125">
         <v>14.200000000000001</v>
@@ -10782,8 +10784,8 @@
       <c r="B126" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C126" s="23">
-        <v>43712</v>
+      <c r="C126" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>10</v>
@@ -10795,22 +10797,22 @@
         <v>2</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H126" s="2">
         <v>4</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K126" s="2">
         <v>30</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M126">
         <v>3.7</v>
@@ -10856,8 +10858,8 @@
       <c r="B127" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C127" s="23">
-        <v>43712</v>
+      <c r="C127" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>10</v>
@@ -10869,22 +10871,22 @@
         <v>2</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H127" s="2">
         <v>4</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K127" s="2">
         <v>30</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M127">
         <v>8.7000000000000011</v>
@@ -10930,8 +10932,8 @@
       <c r="B128" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C128" s="23">
-        <v>43712</v>
+      <c r="C128" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>10</v>
@@ -10943,22 +10945,22 @@
         <v>2</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H128" s="2">
         <v>4</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K128" s="2">
         <v>5</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M128">
         <v>3.5</v>
@@ -11004,8 +11006,8 @@
       <c r="B129" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C129" s="23">
-        <v>43712</v>
+      <c r="C129" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>10</v>
@@ -11017,22 +11019,22 @@
         <v>2</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H129" s="2">
         <v>4</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K129" s="2">
         <v>5</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M129">
         <v>2.2999999999999998</v>
@@ -11078,8 +11080,8 @@
       <c r="B130" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C130" s="23">
-        <v>43712</v>
+      <c r="C130" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>10</v>
@@ -11091,22 +11093,22 @@
         <v>2</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H130" s="2">
         <v>4</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K130" s="2">
         <v>30</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M130">
         <v>7.7999999999999989</v>
@@ -11152,8 +11154,8 @@
       <c r="B131" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C131" s="23">
-        <v>43712</v>
+      <c r="C131" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>10</v>
@@ -11165,22 +11167,22 @@
         <v>2</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H131" s="2">
         <v>4</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K131" s="2">
         <v>30</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M131">
         <v>6</v>
@@ -11226,8 +11228,8 @@
       <c r="B132" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C132" s="23">
-        <v>43712</v>
+      <c r="C132" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>10</v>
@@ -11239,22 +11241,22 @@
         <v>2</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H132" s="2">
         <v>4</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K132" s="2">
         <v>5</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M132">
         <v>5.9</v>
@@ -11300,8 +11302,8 @@
       <c r="B133" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C133" s="23">
-        <v>43712</v>
+      <c r="C133" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>10</v>
@@ -11313,22 +11315,22 @@
         <v>2</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H133" s="2">
         <v>4</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K133" s="2">
         <v>5</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M133">
         <v>11.799999999999999</v>
@@ -11374,8 +11376,8 @@
       <c r="B134" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C134" s="23">
-        <v>43712</v>
+      <c r="C134" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>10</v>
@@ -11387,22 +11389,22 @@
         <v>2</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H134" s="2">
         <v>4</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K134" s="2">
         <v>30</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M134">
         <v>5.0999999999999996</v>
@@ -11448,8 +11450,8 @@
       <c r="B135" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C135" s="23">
-        <v>43712</v>
+      <c r="C135" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>10</v>
@@ -11461,22 +11463,22 @@
         <v>2</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H135" s="2">
         <v>4</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K135" s="2">
         <v>30</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M135">
         <v>11.1</v>
@@ -11522,8 +11524,8 @@
       <c r="B136" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C136" s="23">
-        <v>43712</v>
+      <c r="C136" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>10</v>
@@ -11535,22 +11537,22 @@
         <v>2</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H136" s="2">
         <v>4</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K136" s="2">
         <v>5</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M136">
         <v>6.4</v>
@@ -11596,8 +11598,8 @@
       <c r="B137" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C137" s="23">
-        <v>43712</v>
+      <c r="C137" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>10</v>
@@ -11609,22 +11611,22 @@
         <v>2</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H137" s="2">
         <v>4</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K137" s="2">
         <v>5</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M137">
         <v>8</v>
@@ -11670,8 +11672,8 @@
       <c r="B138" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C138" s="23">
-        <v>43712</v>
+      <c r="C138" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>10</v>
@@ -11683,22 +11685,22 @@
         <v>2</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H138" s="2">
         <v>4</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K138" s="2">
         <v>30</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M138">
         <v>4.9999999999999991</v>
@@ -11744,8 +11746,8 @@
       <c r="B139" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C139" s="23">
-        <v>43712</v>
+      <c r="C139" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>10</v>
@@ -11757,22 +11759,22 @@
         <v>2</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H139" s="2">
         <v>4</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K139" s="2">
         <v>5</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M139">
         <v>5.2</v>
@@ -11818,8 +11820,8 @@
       <c r="B140" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C140" s="23">
-        <v>43712</v>
+      <c r="C140" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>10</v>
@@ -11831,22 +11833,22 @@
         <v>2</v>
       </c>
       <c r="G140" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H140" s="2">
+        <v>4</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J140" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="H140" s="2">
-        <v>4</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="K140" s="2">
         <v>30</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M140">
         <v>4.4000000000000004</v>
@@ -11892,8 +11894,8 @@
       <c r="B141" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C141" s="23">
-        <v>43712</v>
+      <c r="C141" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>10</v>
@@ -11905,22 +11907,22 @@
         <v>2</v>
       </c>
       <c r="G141" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H141" s="2">
+        <v>4</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J141" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="H141" s="2">
-        <v>4</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="K141" s="2">
         <v>5</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M141">
         <v>4.8</v>
@@ -11966,8 +11968,8 @@
       <c r="B142" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C142" s="23">
-        <v>43712</v>
+      <c r="C142" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>11</v>
@@ -11979,22 +11981,22 @@
         <v>2</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H142" s="2">
         <v>20</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K142" s="2">
         <v>30</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M142">
         <v>17.799999999999997</v>
@@ -12040,8 +12042,8 @@
       <c r="B143" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C143" s="23">
-        <v>43712</v>
+      <c r="C143" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>11</v>
@@ -12053,22 +12055,22 @@
         <v>2</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H143" s="2">
         <v>20</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K143" s="2">
         <v>30</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M143">
         <v>14.4</v>
@@ -12114,8 +12116,8 @@
       <c r="B144" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C144" s="23">
-        <v>43712</v>
+      <c r="C144" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>11</v>
@@ -12127,22 +12129,22 @@
         <v>2</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H144" s="2">
         <v>20</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K144" s="2">
         <v>5</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M144">
         <v>15.4</v>
@@ -12188,8 +12190,8 @@
       <c r="B145" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C145" s="23">
-        <v>43712</v>
+      <c r="C145" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>11</v>
@@ -12201,22 +12203,22 @@
         <v>2</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H145" s="2">
         <v>20</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K145" s="2">
         <v>5</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M145">
         <v>12.4</v>
@@ -12262,8 +12264,8 @@
       <c r="B146" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C146" s="23">
-        <v>43712</v>
+      <c r="C146" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>11</v>
@@ -12275,22 +12277,22 @@
         <v>2</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H146" s="2">
         <v>4</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K146" s="2">
         <v>30</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M146">
         <v>4.9999999999999991</v>
@@ -12336,8 +12338,8 @@
       <c r="B147" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C147" s="23">
-        <v>43712</v>
+      <c r="C147" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>11</v>
@@ -12349,22 +12351,22 @@
         <v>2</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H147" s="2">
         <v>4</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K147" s="2">
         <v>30</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M147">
         <v>6.3</v>
@@ -12410,8 +12412,8 @@
       <c r="B148" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C148" s="23">
-        <v>43712</v>
+      <c r="C148" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>11</v>
@@ -12423,22 +12425,22 @@
         <v>2</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H148" s="2">
         <v>4</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K148" s="2">
         <v>5</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M148">
         <v>5.3</v>
@@ -12484,8 +12486,8 @@
       <c r="B149" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C149" s="23">
-        <v>43712</v>
+      <c r="C149" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>11</v>
@@ -12497,22 +12499,22 @@
         <v>2</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H149" s="2">
         <v>4</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K149" s="2">
         <v>5</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M149">
         <v>5.4999999999999991</v>
@@ -12558,8 +12560,8 @@
       <c r="B150" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C150" s="23">
-        <v>43712</v>
+      <c r="C150" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>11</v>
@@ -12571,22 +12573,22 @@
         <v>2</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H150" s="2">
         <v>4</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K150" s="2">
         <v>30</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M150">
         <v>15.700000000000001</v>
@@ -12632,8 +12634,8 @@
       <c r="B151" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C151" s="23">
-        <v>43712</v>
+      <c r="C151" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>11</v>
@@ -12645,22 +12647,22 @@
         <v>2</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H151" s="2">
         <v>4</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K151" s="2">
         <v>30</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M151">
         <v>10.3</v>
@@ -12706,8 +12708,8 @@
       <c r="B152" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C152" s="23">
-        <v>43712</v>
+      <c r="C152" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>11</v>
@@ -12719,22 +12721,22 @@
         <v>2</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H152" s="2">
         <v>4</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K152" s="2">
         <v>5</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M152">
         <v>4.8999999999999995</v>
@@ -12780,8 +12782,8 @@
       <c r="B153" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C153" s="23">
-        <v>43712</v>
+      <c r="C153" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>11</v>
@@ -12793,22 +12795,22 @@
         <v>2</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H153" s="2">
         <v>4</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K153" s="2">
         <v>5</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M153">
         <v>11.499999999999998</v>
@@ -12854,8 +12856,8 @@
       <c r="B154" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C154" s="23">
-        <v>43712</v>
+      <c r="C154" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>11</v>
@@ -12867,22 +12869,22 @@
         <v>2</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H154" s="2">
         <v>4</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K154" s="2">
         <v>30</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M154">
         <v>7.1</v>
@@ -12928,8 +12930,8 @@
       <c r="B155" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C155" s="23">
-        <v>43712</v>
+      <c r="C155" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>11</v>
@@ -12941,22 +12943,22 @@
         <v>2</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H155" s="2">
         <v>4</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K155" s="2">
         <v>30</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M155">
         <v>4.5999999999999996</v>
@@ -13002,8 +13004,8 @@
       <c r="B156" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C156" s="23">
-        <v>43712</v>
+      <c r="C156" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>11</v>
@@ -13015,22 +13017,22 @@
         <v>2</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H156" s="2">
         <v>4</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K156" s="2">
         <v>5</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M156">
         <v>9.1</v>
@@ -13076,8 +13078,8 @@
       <c r="B157" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C157" s="23">
-        <v>43712</v>
+      <c r="C157" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>11</v>
@@ -13089,22 +13091,22 @@
         <v>2</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H157" s="2">
         <v>4</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K157" s="2">
         <v>5</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M157">
         <v>3.0999999999999996</v>
@@ -13150,8 +13152,8 @@
       <c r="B158" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C158" s="23">
-        <v>43712</v>
+      <c r="C158" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>11</v>
@@ -13163,22 +13165,22 @@
         <v>2</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H158" s="2">
         <v>4</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K158" s="2">
         <v>30</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M158">
         <v>2.3999999999999995</v>
@@ -13224,8 +13226,8 @@
       <c r="B159" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C159" s="23">
-        <v>43712</v>
+      <c r="C159" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>11</v>
@@ -13237,22 +13239,22 @@
         <v>2</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H159" s="2">
         <v>4</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K159" s="2">
         <v>5</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M159">
         <v>6.1999999999999993</v>
@@ -13298,8 +13300,8 @@
       <c r="B160" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C160" s="23">
-        <v>43712</v>
+      <c r="C160" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>11</v>
@@ -13311,22 +13313,22 @@
         <v>2</v>
       </c>
       <c r="G160" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H160" s="2">
+        <v>4</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J160" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="H160" s="2">
-        <v>4</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="J160" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="K160" s="2">
         <v>30</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M160">
         <v>7.2999999999999989</v>
@@ -13372,8 +13374,8 @@
       <c r="B161" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C161" s="23">
-        <v>43712</v>
+      <c r="C161" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>11</v>
@@ -13385,22 +13387,22 @@
         <v>2</v>
       </c>
       <c r="G161" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H161" s="2">
+        <v>4</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J161" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="H161" s="2">
-        <v>4</v>
-      </c>
-      <c r="I161" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J161" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="K161" s="2">
         <v>5</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M161">
         <v>8.1</v>
@@ -13440,19 +13442,20 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:M161">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M161">
     <sortCondition ref="A1"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -13541,7 +13544,7 @@
         <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
@@ -13553,10 +13556,10 @@
         <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
@@ -13565,13 +13568,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>332</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
@@ -13583,7 +13586,7 @@
         <v>173</v>
       </c>
       <c r="B10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
@@ -13610,7 +13613,7 @@
         <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D12" t="s">
         <v>284</v>
@@ -13625,7 +13628,7 @@
         <v>185</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D13" t="s">
         <v>285</v>
@@ -13637,10 +13640,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D14" t="s">
         <v>285</v>
@@ -13655,7 +13658,7 @@
         <v>179</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D15" t="s">
         <v>283</v>
@@ -13670,7 +13673,7 @@
         <v>180</v>
       </c>
       <c r="B16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D16" t="s">
         <v>283</v>
@@ -13682,10 +13685,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D17" t="s">
         <v>283</v>
@@ -13700,7 +13703,7 @@
         <v>184</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D18" t="s">
         <v>283</v>
@@ -13715,7 +13718,7 @@
         <v>182</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D19" t="s">
         <v>283</v>
@@ -13730,7 +13733,7 @@
         <v>183</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D20" t="s">
         <v>283</v>
@@ -13738,10 +13741,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D21" t="s">
         <v>287</v>
@@ -13749,7 +13752,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>286</v>
@@ -13761,10 +13764,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>296</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>297</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>287</v>
@@ -13782,7 +13785,7 @@
         <v>289</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -13791,7 +13794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:X40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
